--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.15</v>
+        <v>-20.588</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.928</v>
+        <v>-21.286</v>
       </c>
       <c r="B7" t="n">
-        <v>5.412</v>
+        <v>6.312</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.042000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.938</v>
+        <v>-22.043</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.512</v>
+        <v>-13.27</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.122</v>
+        <v>-12.192</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.48</v>
+        <v>8.644000000000002</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>7.294</v>
+        <v>6.709999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.546</v>
+        <v>-21.767</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.214</v>
+        <v>-21.586</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.794</v>
+        <v>-21.724</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.188</v>
+        <v>7.492999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.152</v>
+        <v>16.751</v>
       </c>
     </row>
     <row r="35">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.556</v>
+        <v>-12.669</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.308</v>
+        <v>-20.646</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.96</v>
+        <v>6.049000000000001</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.478</v>
+        <v>17.283</v>
       </c>
     </row>
     <row r="44">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.896</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.498</v>
+        <v>-14.113</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>17.205</v>
       </c>
     </row>
     <row r="49">
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.996</v>
+        <v>5.715000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.734</v>
+        <v>-13.493</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.569999999999999</v>
+        <v>6.284000000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.532</v>
+        <v>-21.63</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.184</v>
+        <v>-22.32</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.424</v>
+        <v>-21.322</v>
       </c>
       <c r="B66" t="n">
-        <v>6.074</v>
+        <v>5.83</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.108</v>
+        <v>5.571</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.58</v>
+        <v>17.387</v>
       </c>
     </row>
     <row r="71">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.512</v>
+        <v>16.485</v>
       </c>
     </row>
     <row r="74">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.144</v>
+        <v>5.502</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.763999999999999</v>
+        <v>5.453000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.732</v>
+        <v>16.465</v>
       </c>
     </row>
     <row r="88">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.706</v>
+        <v>5.247000000000001</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.948</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="93">
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.828</v>
+        <v>-12.18</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>6.811</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.87</v>
+        <v>-13.606</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.852</v>
+        <v>-21.907</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.904</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="102">
